--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74812.74279992444</v>
+        <v>-84079.52546613679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.5916827</v>
+        <v>29520662.93214758</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.9934074</v>
+        <v>14696419.30559702</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2062729.455340117</v>
+        <v>2277982.874462193</v>
       </c>
     </row>
     <row r="11">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>108.2806355744734</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>264.1358210110383</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.3785108036302</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2245,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>64.63347181686724</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>149.9234878582038</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>161.7182125015749</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2527,19 +2529,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>58.31785390819471</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>156.5493496416716</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517241</v>
+        <v>105.3918965517242</v>
       </c>
       <c r="D27" t="n">
         <v>94.13938596491228</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>159.5828560759984</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>191.8108748580945</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>424.2958575201043</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6938131212221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
         <v>94.13938596491228</v>
@@ -2953,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>147.411778489778</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.10361087483692</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8308074931169</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>26.62759295795207</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3116,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F33" t="n">
         <v>82.55</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>71.73847274498114</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>127.2469942221456</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>50.98583392895355</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>10.12512804809592</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>246.5035018411135</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>403.1572050940909</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>325.7782970520128</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3666,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>211.203711235355</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>237.2932564375328</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>240.7036592339657</v>
       </c>
       <c r="W41" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>134.2311620086093</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>157.1975631248317</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>343.198987889597</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.451086223607424</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1288.897306380071</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C20" t="n">
-        <v>860.3156321173392</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D20" t="n">
-        <v>860.3156321173392</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E20" t="n">
-        <v>750.9412527491843</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F20" t="n">
-        <v>323.0738231583921</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G20" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5777,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y20" t="n">
-        <v>1288.897306380071</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="21">
@@ -5844,10 +5846,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O21" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P21" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1024.341879988165</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="C22" t="n">
-        <v>851.7801684713901</v>
+        <v>441.8150506068822</v>
       </c>
       <c r="D22" t="n">
-        <v>685.9021756729128</v>
+        <v>275.9370578084049</v>
       </c>
       <c r="E22" t="n">
-        <v>516.14417192365</v>
+        <v>275.9370578084049</v>
       </c>
       <c r="F22" t="n">
-        <v>339.4371178854062</v>
+        <v>99.23000377016112</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5914,16 +5916,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P22" t="n">
         <v>1528.990655216085</v>
@@ -5947,13 +5949,13 @@
         <v>1131.794921203953</v>
       </c>
       <c r="W22" t="n">
-        <v>1131.794921203953</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X22" t="n">
-        <v>1131.794921203953</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y22" t="n">
-        <v>1131.794921203953</v>
+        <v>614.3767621236573</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>613.9632093877782</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C23" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D23" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E23" t="n">
-        <v>185.3815351250465</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K23" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L23" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O23" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P23" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q23" t="n">
         <v>1528.02936532736</v>
@@ -6020,19 +6022,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W23" t="n">
-        <v>1033.105672808467</v>
+        <v>1171.214750214673</v>
       </c>
       <c r="X23" t="n">
-        <v>613.9632093877782</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y23" t="n">
-        <v>613.9632093877782</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,34 +6056,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1113.00182921349</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="C25" t="n">
-        <v>940.4401176967148</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G25" t="n">
         <v>262.5057921365585</v>
@@ -6151,16 +6153,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>395.2818083374338</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="M25" t="n">
-        <v>815.3347072823371</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="N25" t="n">
-        <v>815.3347072823371</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6175,22 +6177,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1457.617316944195</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>1179.184316197301</v>
       </c>
       <c r="V25" t="n">
-        <v>1516.524240083786</v>
+        <v>892.2288080677313</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.393583880077</v>
+        <v>620.2024036540229</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.00182921349</v>
+        <v>620.2024036540229</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.00182921349</v>
+        <v>620.2024036540229</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.601755817686</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D26" t="n">
-        <v>840.020081554954</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>411.4384072922223</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195.1384727187784</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C28" t="n">
         <v>33.94366860160834</v>
@@ -6382,22 +6384,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M28" t="n">
-        <v>452.1535503695694</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P28" t="n">
         <v>1528.990655216085</v>
@@ -6412,22 +6414,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1418.750429333523</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.794921203953</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W28" t="n">
-        <v>859.7685167902448</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X28" t="n">
-        <v>614.3767621236573</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.9570914377655</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>462.52534286434</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6467,22 +6469,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O29" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V29" t="n">
-        <v>1437.961127397434</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W29" t="n">
-        <v>1437.961127397434</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X29" t="n">
-        <v>1018.818663976745</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y29" t="n">
-        <v>888.8249133492478</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L30" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M30" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N30" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O30" t="n">
         <v>804.6185656731816</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>770.7035002010737</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C31" t="n">
-        <v>598.1417886842986</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D31" t="n">
-        <v>432.2637958858213</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V31" t="n">
-        <v>1270.644793662241</v>
+        <v>1143.161828603558</v>
       </c>
       <c r="W31" t="n">
-        <v>1270.644793662241</v>
+        <v>871.1354241898498</v>
       </c>
       <c r="X31" t="n">
-        <v>1025.253038995654</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y31" t="n">
-        <v>962.5221189200608</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="C32" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D32" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E32" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O32" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q32" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1670.286871537031</v>
       </c>
       <c r="T32" t="n">
-        <v>1613.531556264254</v>
+        <v>1670.286871537031</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.531556264254</v>
+        <v>1670.286871537031</v>
       </c>
       <c r="V32" t="n">
-        <v>1613.531556264254</v>
+        <v>1307.669921470858</v>
       </c>
       <c r="W32" t="n">
-        <v>1208.676101675288</v>
+        <v>1307.669921470858</v>
       </c>
       <c r="X32" t="n">
-        <v>789.5336382545983</v>
+        <v>888.5274580501684</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2475145542517</v>
+        <v>888.5274580501684</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>448.7051013968338</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="C34" t="n">
-        <v>376.2419976140245</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="D34" t="n">
-        <v>376.2419976140245</v>
+        <v>560.7961132819279</v>
       </c>
       <c r="E34" t="n">
-        <v>376.2419976140245</v>
+        <v>391.0381095326651</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5349435757807</v>
+        <v>391.0381095326651</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M34" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6883,25 +6885,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W34" t="n">
-        <v>885.9154747824084</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X34" t="n">
-        <v>640.5237201158209</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.5237201158209</v>
+        <v>726.6741060804052</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>751.6554974211238</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="C35" t="n">
-        <v>323.0738231583921</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0738231583921</v>
+        <v>486.8423423308228</v>
       </c>
       <c r="E35" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6944,13 +6946,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W35" t="n">
-        <v>751.6554974211238</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X35" t="n">
-        <v>751.6554974211238</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y35" t="n">
-        <v>751.6554974211238</v>
+        <v>915.4240165935545</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7020,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>623.8308893488454</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="C37" t="n">
-        <v>623.8308893488454</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D37" t="n">
-        <v>457.9528965503681</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E37" t="n">
-        <v>288.1948928011053</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F37" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7099,13 +7101,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7120,25 +7122,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U37" t="n">
-        <v>1292.062614956869</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V37" t="n">
-        <v>1292.062614956869</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W37" t="n">
-        <v>1043.069178753724</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X37" t="n">
-        <v>1043.069178753724</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y37" t="n">
-        <v>815.6495080678326</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.52534286434</v>
+        <v>791.594329785565</v>
       </c>
       <c r="C38" t="n">
-        <v>462.52534286434</v>
+        <v>791.594329785565</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>363.0126555228334</v>
       </c>
       <c r="E38" t="n">
         <v>33.94366860160834</v>
@@ -7175,16 +7177,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7202,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X38" t="n">
-        <v>1278.040966659728</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.7548429593813</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7257,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>295.1653293437081</v>
+        <v>777.6525504900546</v>
       </c>
       <c r="C40" t="n">
-        <v>122.603617826933</v>
+        <v>605.0908389732796</v>
       </c>
       <c r="D40" t="n">
-        <v>122.603617826933</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E40" t="n">
-        <v>122.603617826933</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F40" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G40" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H40" t="n">
         <v>122.603617826933</v>
@@ -7330,25 +7332,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M40" t="n">
-        <v>395.2818083374338</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
@@ -7357,25 +7359,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1292.062614956869</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U40" t="n">
-        <v>1013.629614209975</v>
+        <v>1483.846348024503</v>
       </c>
       <c r="V40" t="n">
-        <v>726.6741060804052</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="W40" t="n">
-        <v>486.9839480626952</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="X40" t="n">
-        <v>486.9839480626952</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="Y40" t="n">
-        <v>486.9839480626952</v>
+        <v>969.4711692090418</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>751.6554974211238</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C41" t="n">
-        <v>323.0738231583921</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7409,28 +7411,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L41" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M41" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
@@ -7445,16 +7447,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>771.6250763881362</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W41" t="n">
-        <v>751.6554974211238</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X41" t="n">
-        <v>751.6554974211238</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y41" t="n">
-        <v>751.6554974211238</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>262.5057921365585</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C43" t="n">
-        <v>262.5057921365585</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D43" t="n">
-        <v>262.5057921365585</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E43" t="n">
-        <v>262.5057921365585</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F43" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7570,16 +7572,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>540.5762527112014</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7594,25 +7596,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1294.299130032316</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V43" t="n">
-        <v>1007.343621902746</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W43" t="n">
-        <v>735.3172174890378</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="X43" t="n">
-        <v>489.9254628224502</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="Y43" t="n">
-        <v>262.5057921365585</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>809.6077765701262</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>381.0261023073946</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.0261023073946</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.0261023073946</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>381.0261023073946</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>809.6077765701262</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760968</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>35.40941226181786</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>227.228030980805</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9562,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N23" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9799,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
@@ -9808,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9875,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P26" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9957,19 +9959,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10115,16 +10117,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10133,7 +10135,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L30" t="n">
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10592,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10668,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10747,16 +10749,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10823,7 +10825,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10905,19 +10907,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11218,19 +11220,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>321.1563618188144</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>136.6710790320387</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.52192172816706</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.30189040756336</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -24206,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>273.6652674366806</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>239.0886875415021</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>185.1027980491346</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>112.7567907278998</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24446,19 +24448,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,16 +24496,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>11.25323832560895</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -24652,10 +24654,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.83779588133123</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>9.465190568306582</v>
@@ -24695,7 +24697,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24731,22 +24733,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>275.509449342121</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24853,10 +24855,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>136.6741745584958</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.0418631041959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.20576728694181</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24926,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -24935,7 +24937,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>56.18776212004929</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -24974,16 +24976,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>99.09762165662617</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>36.68836800228505</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25154,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>378.4511634643342</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.7753044837013</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>22.80263852845792</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18.87936968596779</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25397,7 +25399,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>103.658700341275</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25442,10 +25444,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25454,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>64.44495950407071</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>32.01288393203853</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25643,7 +25645,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>118.287121331546</v>
       </c>
       <c r="W41" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25786,25 +25788,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>141.4175087308164</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>112.1085772447397</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>54.18486517337175</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25931,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26032,7 +26034,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>173.4888972742539</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26071,25 +26073,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372749.2761596754</v>
+        <v>372749.2761596753</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372749.2761596754</v>
+        <v>372749.2761596753</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372749.2761596753</v>
+        <v>372749.2761596754</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372749.2761596753</v>
+        <v>372749.2761596754</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372749.2761596754</v>
+        <v>372749.2761596753</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>372749.2761596754</v>
       </c>
     </row>
   </sheetData>
@@ -26338,13 +26340,13 @@
         <v>54091.05190293308</v>
       </c>
       <c r="K2" t="n">
-        <v>54091.05190293307</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="L2" t="n">
         <v>54091.05190293308</v>
       </c>
       <c r="M2" t="n">
-        <v>54091.05190293309</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="N2" t="n">
         <v>54091.05190293308</v>
@@ -26353,7 +26355,7 @@
         <v>54091.05190293308</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54091.05190293308</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>100292.5090254571</v>
       </c>
     </row>
     <row r="4">
@@ -26433,13 +26435,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="I4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="J4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="K4" t="n">
         <v>6500.075391072234</v>
@@ -26451,13 +26453,13 @@
         <v>6500.075391072234</v>
       </c>
       <c r="N4" t="n">
-        <v>6500.075391072233</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="O4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6500.075391072234</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26540,28 +26542,28 @@
         <v>-92685.05264700334</v>
       </c>
       <c r="I6" t="n">
-        <v>21793.78837463851</v>
+        <v>21793.7883746385</v>
       </c>
       <c r="J6" t="n">
         <v>21793.7883746385</v>
       </c>
       <c r="K6" t="n">
-        <v>21793.78837463849</v>
+        <v>21793.78837463851</v>
       </c>
       <c r="L6" t="n">
         <v>21793.7883746385</v>
       </c>
       <c r="M6" t="n">
-        <v>21793.78837463851</v>
+        <v>21793.7883746385</v>
       </c>
       <c r="N6" t="n">
         <v>21793.7883746385</v>
       </c>
       <c r="O6" t="n">
-        <v>21793.7883746385</v>
+        <v>21793.78837463851</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-78498.72065081864</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,10 +36132,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36282,19 +36284,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N23" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36519,7 +36521,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
@@ -36528,10 +36530,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36595,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P26" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36677,19 +36679,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36835,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36853,7 +36855,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L30" t="n">
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37388,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37467,16 +37469,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37543,7 +37545,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37625,19 +37627,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37938,19 +37940,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84079.52546613679</v>
+        <v>-93291.90157866766</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29520662.93214758</v>
+        <v>28907448.27261246</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14696419.30559702</v>
+        <v>14095407.61778664</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2277982.874462193</v>
+        <v>2584355.608562758</v>
       </c>
     </row>
     <row r="11">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>293.1637189657521</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>231.1621979137637</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>400.6317957608434</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>264.1358210110383</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>64.63347181686724</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>247.0309713351259</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>161.7182125015749</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>250.0484779675876</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>58.31785390819471</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>194.004963119197</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2614,10 +2614,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>102.5852382553438</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
         <v>94.13938596491228</v>
@@ -2645,7 +2645,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F27" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G27" t="n">
         <v>84.53123883647795</v>
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>191.8108748580945</v>
+        <v>124.9460856080176</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>102.5852382553438</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>147.411778489778</v>
+        <v>124.9460856080176</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>220.439704612525</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>26.62759295795207</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T33" t="n">
         <v>128.8768572327044</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>127.2469942221456</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,16 +3246,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>13.23277709302262</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>50.98583392895355</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.12512804809592</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>9.875465983261424</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>325.7782970520128</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>150.8611101033267</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.203711235355</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>65.97105309998192</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>240.7036592339657</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>45.94361071252657</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>157.1975631248317</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>343.198987889597</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>203.1869771812474</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.451086223607424</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>135.0644840499559</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1463.686260470555</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1463.686260470555</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1191.659856056847</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>724.8884439079882</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>724.8884439079882</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D20" t="n">
-        <v>724.8884439079882</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="E20" t="n">
-        <v>724.8884439079882</v>
+        <v>840.020081554954</v>
       </c>
       <c r="F20" t="n">
-        <v>724.8884439079882</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>991.6923035150976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>724.8884439079882</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>724.8884439079882</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>724.8884439079882</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5822,7 +5822,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539586</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5837,19 +5837,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.3767621236573</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="C22" t="n">
-        <v>441.8150506068822</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D22" t="n">
-        <v>275.9370578084049</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E22" t="n">
-        <v>275.9370578084049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>99.23000377016112</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5910,22 +5910,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K22" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L22" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M22" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N22" t="n">
-        <v>1235.38760622724</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
         <v>1528.990655216085</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.794921203953</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W22" t="n">
-        <v>859.7685167902448</v>
+        <v>614.971419815936</v>
       </c>
       <c r="X22" t="n">
-        <v>614.3767621236573</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="Y22" t="n">
-        <v>614.3767621236573</v>
+        <v>369.5796651493484</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.0722867939837</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M23" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N23" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O23" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q23" t="n">
         <v>1528.02936532736</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W23" t="n">
-        <v>1171.214750214673</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X23" t="n">
-        <v>752.0722867939837</v>
+        <v>715.0995630336205</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.0722867939837</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>428.3837849350358</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C25" t="n">
-        <v>428.3837849350358</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D25" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E25" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K25" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L25" t="n">
-        <v>689.2685070454004</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M25" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6174,25 +6174,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>1457.617316944195</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U25" t="n">
-        <v>1179.184316197301</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V25" t="n">
-        <v>892.2288080677313</v>
+        <v>955.4885524060398</v>
       </c>
       <c r="W25" t="n">
-        <v>620.2024036540229</v>
+        <v>683.4621479923314</v>
       </c>
       <c r="X25" t="n">
-        <v>620.2024036540229</v>
+        <v>438.0703933257439</v>
       </c>
       <c r="Y25" t="n">
-        <v>620.2024036540229</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>751.6554974211238</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C26" t="n">
-        <v>323.0738231583921</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0738231583921</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E26" t="n">
-        <v>323.0738231583921</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F26" t="n">
-        <v>323.0738231583921</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="G26" t="n">
         <v>323.0738231583921</v>
@@ -6226,22 +6226,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W26" t="n">
-        <v>751.6554974211238</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X26" t="n">
-        <v>751.6554974211238</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y26" t="n">
-        <v>751.6554974211238</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6384,22 +6384,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M28" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N28" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O28" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
         <v>1528.990655216085</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U28" t="n">
-        <v>1257.555625216353</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="V28" t="n">
-        <v>970.6001170867833</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="W28" t="n">
-        <v>698.5737126730747</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="X28" t="n">
-        <v>453.1819580064872</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.7622873205955</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C29" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E29" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F29" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6463,16 +6463,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K29" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L29" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M29" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N29" t="n">
         <v>267.8706684926505</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>855.2769502042993</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X29" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y29" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6545,19 +6545,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>206.5053801183834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V31" t="n">
-        <v>1143.161828603558</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="W31" t="n">
-        <v>871.1354241898498</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="X31" t="n">
-        <v>625.7436695232623</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y31" t="n">
-        <v>398.3239988373705</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>462.2278875652606</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="C32" t="n">
-        <v>462.2278875652606</v>
+        <v>545.7401914538719</v>
       </c>
       <c r="D32" t="n">
-        <v>462.2278875652606</v>
+        <v>545.7401914538719</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2278875652606</v>
+        <v>545.7401914538719</v>
       </c>
       <c r="F32" t="n">
-        <v>34.36045797446834</v>
+        <v>545.7401914538719</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6703,49 +6703,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P32" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q32" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1670.286871537031</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1670.286871537031</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1670.286871537031</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V32" t="n">
-        <v>1307.669921470858</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W32" t="n">
-        <v>1307.669921470858</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X32" t="n">
-        <v>888.5274580501684</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="Y32" t="n">
-        <v>888.5274580501684</v>
+        <v>974.3218657166036</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.6741060804052</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C34" t="n">
-        <v>726.6741060804052</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D34" t="n">
-        <v>560.7961132819279</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E34" t="n">
-        <v>391.0381095326651</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
-        <v>391.0381095326651</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V34" t="n">
-        <v>726.6741060804052</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W34" t="n">
-        <v>726.6741060804052</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X34" t="n">
-        <v>726.6741060804052</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y34" t="n">
-        <v>726.6741060804052</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>915.4240165935545</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C35" t="n">
-        <v>915.4240165935545</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D35" t="n">
-        <v>486.8423423308228</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E35" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F35" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1334.566480014244</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W35" t="n">
-        <v>1334.566480014244</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X35" t="n">
-        <v>915.4240165935545</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y35" t="n">
-        <v>915.4240165935545</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376.2419976140245</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="C37" t="n">
-        <v>376.2419976140245</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D37" t="n">
-        <v>376.2419976140245</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E37" t="n">
-        <v>376.2419976140245</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F37" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>1419.910944199334</v>
       </c>
       <c r="W37" t="n">
-        <v>613.8890703687</v>
+        <v>1147.884539785626</v>
       </c>
       <c r="X37" t="n">
-        <v>613.8890703687</v>
+        <v>902.492785119038</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.4693996828083</v>
+        <v>675.0731144331462</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>791.594329785565</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>791.594329785565</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>363.0126555228334</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7177,22 +7177,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M38" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N38" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q38" t="n">
         <v>1528.02936532736</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W38" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X38" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y38" t="n">
-        <v>1217.893900270473</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>777.6525504900546</v>
+        <v>1011.135564714323</v>
       </c>
       <c r="C40" t="n">
-        <v>605.0908389732796</v>
+        <v>838.5738531975477</v>
       </c>
       <c r="D40" t="n">
-        <v>439.2128461748023</v>
+        <v>672.6958603990704</v>
       </c>
       <c r="E40" t="n">
-        <v>439.2128461748023</v>
+        <v>502.9378566498077</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5057921365585</v>
+        <v>326.2308026115638</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7335,49 +7335,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L40" t="n">
-        <v>437.4083829648294</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M40" t="n">
-        <v>857.4612819097326</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U40" t="n">
-        <v>1483.846348024503</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V40" t="n">
-        <v>1196.890839894934</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W40" t="n">
-        <v>1196.890839894934</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X40" t="n">
-        <v>1196.890839894934</v>
+        <v>1430.373854119202</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.4711692090418</v>
+        <v>1202.95418343331</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>891.1070171270717</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="C41" t="n">
-        <v>462.52534286434</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="D41" t="n">
         <v>33.94366860160834</v>
@@ -7411,28 +7411,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L41" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M41" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N41" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O41" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q41" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
@@ -7441,22 +7441,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V41" t="n">
-        <v>891.1070171270717</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W41" t="n">
-        <v>891.1070171270717</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X41" t="n">
-        <v>891.1070171270717</v>
+        <v>935.1667901605819</v>
       </c>
       <c r="Y41" t="n">
-        <v>891.1070171270717</v>
+        <v>526.8806664602353</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7496,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.4397056785397</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C43" t="n">
-        <v>711.8779941617646</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D43" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E43" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7596,25 +7596,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.644793662241</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V43" t="n">
-        <v>1270.644793662241</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W43" t="n">
-        <v>1111.859376364431</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.859376364431</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.4397056785397</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>809.6077765701262</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>381.0261023073946</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>381.0261023073946</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>381.0261023073946</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>381.0261023073946</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7654,22 +7654,22 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L44" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M44" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N44" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.102365436318</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R44" t="n">
         <v>1697.183430080417</v>
@@ -7678,22 +7678,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>1217.893900270473</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W44" t="n">
-        <v>1217.893900270473</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X44" t="n">
-        <v>1217.893900270473</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y44" t="n">
-        <v>809.6077765701262</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
         <v>161.0644105192121</v>
@@ -7733,16 +7733,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.40941226181786</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C46" t="n">
-        <v>35.40941226181786</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D46" t="n">
-        <v>35.40941226181786</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E46" t="n">
-        <v>35.40941226181786</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
         <v>33.94366860160834</v>
@@ -7815,43 +7815,43 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1580.667833301518</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W46" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X46" t="n">
-        <v>454.6477016666967</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y46" t="n">
-        <v>227.228030980805</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9956,11 +9956,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>424.2958575201043</v>
@@ -10193,10 +10193,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10351,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L38" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11302,7 +11302,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -23797,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>121.7873198207303</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,16 +23892,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23946,19 +23946,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>44.48647282566202</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>22.95695953404089</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>136.6710790320387</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,19 +24129,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>99.30189040756336</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>22.2751690344455</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>239.0886875415021</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>154.1547844957555</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>185.1027980491346</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.08098992907688</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>18.62318932011459</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>298.2216617877332</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>83.83779588133123</v>
+        <v>150.7025851314082</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>377.6139698856264</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>298.2216617877332</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>136.6741745584958</v>
+        <v>159.1398674402563</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,16 +24928,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>176.9441484504437</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>56.18776212004929</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36.68836800228505</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>229.705060026899</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>378.4511634643342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25207,19 +25207,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7753044837013</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>274.2104870650124</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>103.658700341275</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25408,7 +25408,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>25.44259872048895</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>13.07425212110391</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25605,16 +25605,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>64.44495950407071</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>365.579633877318</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>118.287121331546</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>229.7050600268991</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>112.1085772447397</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25879,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>54.18486517337175</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>201.0162852820957</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26034,7 +26034,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>173.4888972742539</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>90.08098992907688</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>372749.2761596755</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372749.2761596753</v>
+        <v>372749.2761596754</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372749.2761596753</v>
+        <v>372749.2761596755</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372749.2761596754</v>
+        <v>372749.2761596755</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372749.2761596753</v>
+        <v>372749.2761596754</v>
       </c>
     </row>
     <row r="16">
@@ -26328,13 +26328,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="H2" t="n">
         <v>54091.05190293308</v>
       </c>
       <c r="I2" t="n">
-        <v>54091.05190293308</v>
+        <v>54091.05190293307</v>
       </c>
       <c r="J2" t="n">
         <v>54091.05190293308</v>
@@ -26343,7 +26343,7 @@
         <v>54091.05190293308</v>
       </c>
       <c r="L2" t="n">
-        <v>54091.05190293308</v>
+        <v>54091.05190293309</v>
       </c>
       <c r="M2" t="n">
         <v>54091.05190293308</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>116293.1301083978</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>102107.2224080706</v>
       </c>
       <c r="P3" t="n">
-        <v>100292.5090254571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,16 +26432,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="H4" t="n">
-        <v>6500.075391072233</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="I4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="J4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="K4" t="n">
         <v>6500.075391072234</v>
@@ -26450,10 +26450,10 @@
         <v>6500.075391072234</v>
       </c>
       <c r="M4" t="n">
+        <v>6500.075391072233</v>
+      </c>
+      <c r="N4" t="n">
         <v>6500.075391072234</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6500.075391072235</v>
       </c>
       <c r="O4" t="n">
         <v>6500.075391072234</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
         <v>25797.18813722234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-95238.69834567497</v>
       </c>
       <c r="H6" t="n">
-        <v>-92685.05264700334</v>
+        <v>21054.43176272285</v>
       </c>
       <c r="I6" t="n">
-        <v>21793.7883746385</v>
+        <v>21054.43176272284</v>
       </c>
       <c r="J6" t="n">
-        <v>21793.7883746385</v>
+        <v>21054.43176272284</v>
       </c>
       <c r="K6" t="n">
-        <v>21793.78837463851</v>
+        <v>21054.43176272285</v>
       </c>
       <c r="L6" t="n">
-        <v>21793.7883746385</v>
+        <v>21054.43176272286</v>
       </c>
       <c r="M6" t="n">
-        <v>21793.7883746385</v>
+        <v>21054.43176272285</v>
       </c>
       <c r="N6" t="n">
-        <v>21793.7883746385</v>
+        <v>21054.43176272284</v>
       </c>
       <c r="O6" t="n">
-        <v>21793.78837463851</v>
+        <v>-81052.79064534779</v>
       </c>
       <c r="P6" t="n">
-        <v>-78498.72065081864</v>
+        <v>21054.43176272284</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
         <v>424.2958575201043</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -36059,10 +36059,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36676,11 +36676,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>424.2958575201043</v>
@@ -36913,10 +36913,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -37071,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L38" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -38022,7 +38022,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38183,19 +38183,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
